--- a/results/lasso_test_results_single_participation/sample_sizes_for_features.xlsx
+++ b/results/lasso_test_results_single_participation/sample_sizes_for_features.xlsx
@@ -382,73 +382,73 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>gender</t>
+          <t>omicron</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C2">
-        <v>522</v>
+        <v>176</v>
       </c>
       <c r="D2">
-        <v>0.5199203187250996</v>
+        <v>0.1752988047808765</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>gender</t>
+          <t>omicron</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C3">
-        <v>482</v>
+        <v>828</v>
       </c>
       <c r="D3">
-        <v>0.4800796812749004</v>
+        <v>0.8247011952191236</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>omicron</t>
+          <t>sex</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C4">
-        <v>176</v>
+        <v>522</v>
       </c>
       <c r="D4">
-        <v>0.1752988047808765</v>
+        <v>0.5199203187250996</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>omicron</t>
+          <t>sex</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>W</t>
         </is>
       </c>
       <c r="C5">
-        <v>828</v>
+        <v>482</v>
       </c>
       <c r="D5">
-        <v>0.8247011952191236</v>
+        <v>0.4800796812749004</v>
       </c>
     </row>
     <row r="6">
